--- a/biology/Zoologie/Fissipedia/Fissipedia.xlsx
+++ b/biology/Zoologie/Fissipedia/Fissipedia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le taxon des fissipèdes (ou Fissipedia) regroupe les animaux mammifères quadrupèdes dont les pieds sont divisés en plusieurs doigts comme les chiens et les loups. Il est issu du latin fissipes qui signifie fourchu et pedis qui signifie pied[1]. Ce sous-ordre s'est avéré paraphylétique et n'est donc plus utilisé dans les classifications cladistes actuelles, basées uniquement sur la topologie de la phylogénie. Les classifications évolutionnistes sont cependant toujours susceptibles de reconnaitre ce taxon car elles ne rejettent pas la paraphylie prennent en compte le critère de la proximité évolutive ou distance patristique.
-Ce taxon regroupe des espèces classées dans l'ordre Carnivora qui est lui-même divisé en deux clades : Caniformia (dont les mustélidés, les ursidés, les canidés, etc.) et Feliformia (hyénidés, félidés, etc.). Georges-Louis Leclerc de Buffon l'utilise en 1755 dans son Histoire naturelle générale et particulière[2]. Le terme « paridigité » est synonyme dans ce contexte.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le taxon des fissipèdes (ou Fissipedia) regroupe les animaux mammifères quadrupèdes dont les pieds sont divisés en plusieurs doigts comme les chiens et les loups. Il est issu du latin fissipes qui signifie fourchu et pedis qui signifie pied. Ce sous-ordre s'est avéré paraphylétique et n'est donc plus utilisé dans les classifications cladistes actuelles, basées uniquement sur la topologie de la phylogénie. Les classifications évolutionnistes sont cependant toujours susceptibles de reconnaitre ce taxon car elles ne rejettent pas la paraphylie prennent en compte le critère de la proximité évolutive ou distance patristique.
+Ce taxon regroupe des espèces classées dans l'ordre Carnivora qui est lui-même divisé en deux clades : Caniformia (dont les mustélidés, les ursidés, les canidés, etc.) et Feliformia (hyénidés, félidés, etc.). Georges-Louis Leclerc de Buffon l'utilise en 1755 dans son Histoire naturelle générale et particulière. Le terme « paridigité » est synonyme dans ce contexte.
 L'autre grand taxon de mammifères était celui des solipèdes, également paraphylétique, qui regroupait les animaux dont le pied est d'une corne continue, tels que le cheval, l'âne, le mulet et le zèbre, taxon qui allait devenir celui des Equidae.
 </t>
         </is>
@@ -513,7 +525,9 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Ordre Carnivora
 Sous-ordre Fissipedia
@@ -554,7 +568,9 @@
           <t>Chez les oiseaux</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les oiseaux dont les doigts des pattes ne sont pas réunis par une membrane sont également dits « fissipèdes ». Cet adjectif possède une valeur de morphologie descriptive, et non taxonomique.
 </t>
